--- a/files/station_reg.xlsx
+++ b/files/station_reg.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">A</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">D</t>
@@ -133,7 +136,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
@@ -205,10 +208,13 @@
       <c r="E4" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J4" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>

--- a/files/station_reg.xlsx
+++ b/files/station_reg.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">A</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">D</t>
@@ -136,15 +133,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F1:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
@@ -158,7 +155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -175,7 +172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -192,7 +189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -208,13 +205,11 @@
       <c r="E4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -243,6 +238,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/files/station_reg.xlsx
+++ b/files/station_reg.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t xml:space="preserve">reg</t>
+  </si>
   <si>
     <t xml:space="preserve">A</t>
   </si>
@@ -133,94 +136,97 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F1:J8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="n">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="n">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="n">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="n">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="n">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -238,7 +244,6 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
